--- a/app/src/main/res/raw/required_subject_list.xlsx
+++ b/app/src/main/res/raw/required_subject_list.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\knuGra\app\src\main\res\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E228C8-0C45-4123-8F5F-A7129A63C496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536133A5-F740-45E1-88F1-D46DA392EA89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="필수과목목록 - 필수과목목록" sheetId="1" r:id="rId1"/>
-    <sheet name="설계과목목록 - 설계과목목록" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>교과목번호</t>
   </si>
@@ -38,9 +37,6 @@
     <t>학점</t>
   </si>
   <si>
-    <t>학기</t>
-  </si>
-  <si>
     <t xml:space="preserve">COMP205 </t>
   </si>
   <si>
@@ -56,27 +52,6 @@
     <t>ELEC462</t>
   </si>
   <si>
-    <t>시스템프로그래밍</t>
-  </si>
-  <si>
-    <t>COMP224</t>
-  </si>
-  <si>
-    <t>소프트웨어설계</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMP225 </t>
-  </si>
-  <si>
-    <t>디지털설계및실험</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMP422 </t>
-  </si>
-  <si>
-    <t>소프트웨어공학</t>
-  </si>
-  <si>
     <t>ITEC401</t>
   </si>
   <si>
@@ -89,7 +64,95 @@
     <t>종합설계프로젝트2</t>
   </si>
   <si>
-    <t>설계과목목록</t>
+    <t>CLTR211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수학 I  </t>
+  </si>
+  <si>
+    <t>COME301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이산수학  </t>
+  </si>
+  <si>
+    <t>CLTR213</t>
+  </si>
+  <si>
+    <t>CLTR223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">물리학실험 I </t>
+  </si>
+  <si>
+    <t>COMP204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">프로그래밍기초 </t>
+  </si>
+  <si>
+    <t>COME331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">자료구조 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">시스템프로그래밍  </t>
+  </si>
+  <si>
+    <t>COMP411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">컴퓨터구조 </t>
+  </si>
+  <si>
+    <t>COMP319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">알고리즘1 </t>
+  </si>
+  <si>
+    <t>COMP312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">운영체제 </t>
+  </si>
+  <si>
+    <t>전공기반</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP208</t>
+  </si>
+  <si>
+    <t>기초공학물리학실험</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대체교과목번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초프로그래밍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP206</t>
+  </si>
+  <si>
+    <t>알고리즘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공학전공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리학 I</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP325</t>
   </si>
 </sst>
 </file>
@@ -103,13 +166,6 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
@@ -120,6 +176,13 @@
     <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -150,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -160,43 +223,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="11"/>
       </left>
       <right style="thin">
@@ -306,17 +332,32 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -331,35 +372,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1524,7 +1547,7 @@
   <dimension ref="A1:IV22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.35546875" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1549,192 +1572,286 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="E2" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="11"/>
+      <c r="C3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="E3" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="E4" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="11"/>
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="E5" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>14</v>
+      <c r="A6" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12">
-        <v>2</v>
+      <c r="C6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="11">
+        <v>3</v>
       </c>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="11"/>
+      <c r="C7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="E7" s="12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="12">
+        <v>3</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="11">
+        <v>3</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="11">
+        <v>3</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="11">
+        <v>3</v>
+      </c>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="11">
+        <v>3</v>
+      </c>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="11">
+        <v>3</v>
+      </c>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="11">
+        <v>4</v>
+      </c>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="11">
+        <v>4</v>
+      </c>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="11">
+        <v>3</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12">
-        <v>4</v>
-      </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="11">
+        <v>3</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12">
-        <v>4</v>
-      </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="13"/>
+      <c r="A18" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="C18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="11">
+        <v>3</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="13"/>
@@ -1769,186 +1886,9 @@
       <c r="F22" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:IV11"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.35546875" defaultRowHeight="19.899999999999999" customHeight="1"/>
-  <cols>
-    <col min="1" max="256" width="16.35546875" style="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="29" customHeight="1">
-      <c r="A1" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
-    </row>
-    <row r="2" spans="1:6" ht="20.55" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7">
-        <v>2</v>
-      </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12">
-        <v>2</v>
-      </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12">
-        <v>2</v>
-      </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12">
-        <v>2</v>
-      </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12">
-        <v>2</v>
-      </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12">
-        <v>2</v>
-      </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12">
-        <v>4</v>
-      </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12">
-        <v>4</v>
-      </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/app/src/main/res/raw/required_subject_list.xlsx
+++ b/app/src/main/res/raw/required_subject_list.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\knuGra\app\src\main\res\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536133A5-F740-45E1-88F1-D46DA392EA89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8FBDB0-BA84-4894-90D5-F3C13FFFCF85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="필수과목목록 - 필수과목목록" sheetId="1" r:id="rId1"/>
+    <sheet name="필수과목목록" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -118,60 +118,45 @@
     <t xml:space="preserve">운영체제 </t>
   </si>
   <si>
+    <t>COMP208</t>
+  </si>
+  <si>
+    <t>COMP206</t>
+  </si>
+  <si>
+    <t>COMP325</t>
+  </si>
+  <si>
+    <t>대체교과목번호</t>
+  </si>
+  <si>
     <t>전공기반</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMP208</t>
+  </si>
+  <si>
+    <t>물리학 I</t>
+  </si>
+  <si>
+    <t>공학전공</t>
   </si>
   <si>
     <t>기초공학물리학실험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대체교과목번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>기초프로그래밍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMP206</t>
   </si>
   <si>
     <t>알고리즘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공학전공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리학 I</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMP325</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
@@ -179,151 +164,21 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="14"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -332,56 +187,8 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1543,354 +1350,291 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471F6030-B2C7-4701-94D2-CC38517545DF}">
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.35546875" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="256" width="16.35546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.55" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="25.5">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25.5">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25.5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25.5">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="25.5">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="25.5">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="25.5">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="25.5">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="38.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="38.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="38.25">
+      <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="7">
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16">
         <v>3</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="16" t="s">
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="25.5">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17">
         <v>3</v>
       </c>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="12">
-        <v>1</v>
-      </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18">
         <v>3</v>
       </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="11">
-        <v>3</v>
-      </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="12">
-        <v>6</v>
-      </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="12">
-        <v>3</v>
-      </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="11">
-        <v>3</v>
-      </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="11">
-        <v>3</v>
-      </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="11">
-        <v>3</v>
-      </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="13" t="s">
+      <c r="F18" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="11">
-        <v>3</v>
-      </c>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="11">
-        <v>3</v>
-      </c>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="11">
-        <v>4</v>
-      </c>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="11">
-        <v>4</v>
-      </c>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="11">
-        <v>3</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="11">
-        <v>3</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="11">
-        <v>3</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/app/src/main/res/raw/required_subject_list.xlsx
+++ b/app/src/main/res/raw/required_subject_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\knuGra\app\src\main\res\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsungpc\Desktop\SCProject\implementgit\app\src\main\res\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8FBDB0-BA84-4894-90D5-F3C13FFFCF85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916E407D-BB57-4A56-A71E-7D518862675B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="936" yWindow="2328" windowWidth="14916" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="필수과목목록" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="44">
   <si>
     <t>교과목번호</t>
   </si>
@@ -146,13 +146,33 @@
   </si>
   <si>
     <t>알고리즘</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -161,6 +181,13 @@
     <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -187,8 +214,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1354,19 +1384,19 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="3" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1390,6 +1420,9 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
@@ -1398,12 +1431,18 @@
       </c>
       <c r="E2">
         <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>18</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C3" t="s">
         <v>37</v>
       </c>
@@ -1413,11 +1452,17 @@
       <c r="E3">
         <v>3</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="25.5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>19</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
@@ -1426,12 +1471,18 @@
       </c>
       <c r="E4">
         <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>16</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
@@ -1441,11 +1492,17 @@
       <c r="E5">
         <v>3</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="25.5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -1455,11 +1512,17 @@
       <c r="E6">
         <v>3</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" ht="25.5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>21</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
@@ -1468,12 +1531,18 @@
       </c>
       <c r="E7">
         <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>23</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C8" t="s">
         <v>24</v>
       </c>
@@ -1483,11 +1552,17 @@
       <c r="E8">
         <v>3</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" ht="25.5">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
@@ -1497,11 +1572,17 @@
       <c r="E9">
         <v>3</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" ht="25.5">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -1511,11 +1592,17 @@
       <c r="E10">
         <v>3</v>
       </c>
+      <c r="F10" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" ht="25.5">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>26</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
@@ -1525,11 +1612,17 @@
       <c r="E11">
         <v>3</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" ht="25.5">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>28</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C12" t="s">
         <v>29</v>
       </c>
@@ -1538,12 +1631,18 @@
       </c>
       <c r="E12">
         <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>30</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C13" t="s">
         <v>31</v>
       </c>
@@ -1553,11 +1652,17 @@
       <c r="E13">
         <v>3</v>
       </c>
+      <c r="F13" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" ht="38.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>10</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -1567,11 +1672,17 @@
       <c r="E14">
         <v>4</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" ht="38.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>12</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
@@ -1581,11 +1692,17 @@
       <c r="E15">
         <v>4</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" ht="38.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>32</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C16" t="s">
         <v>39</v>
       </c>
@@ -1599,9 +1716,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="25.5">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
@@ -1620,6 +1740,9 @@
       <c r="A18" t="s">
         <v>34</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C18" t="s">
         <v>41</v>
       </c>
@@ -1636,5 +1759,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/src/main/res/raw/required_subject_list.xlsx
+++ b/app/src/main/res/raw/required_subject_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsungpc\Desktop\SCProject\implementgit\app\src\main\res\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916E407D-BB57-4A56-A71E-7D518862675B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35A93A0-8F09-48A5-AEBF-F2450DCC800D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="936" yWindow="2328" windowWidth="14916" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,94 +37,43 @@
     <t>학점</t>
   </si>
   <si>
-    <t xml:space="preserve">COMP205 </t>
-  </si>
-  <si>
     <t>기초창의공학설계</t>
   </si>
   <si>
-    <t>COMP217</t>
-  </si>
-  <si>
     <t>자바프로그래밍</t>
   </si>
   <si>
-    <t>ELEC462</t>
-  </si>
-  <si>
-    <t>ITEC401</t>
-  </si>
-  <si>
     <t>종합설계프로젝트1</t>
   </si>
   <si>
-    <t>ITEC402</t>
-  </si>
-  <si>
     <t>종합설계프로젝트2</t>
   </si>
   <si>
-    <t>CLTR211</t>
-  </si>
-  <si>
     <t xml:space="preserve">수학 I  </t>
   </si>
   <si>
-    <t>COME301</t>
-  </si>
-  <si>
     <t xml:space="preserve">이산수학  </t>
   </si>
   <si>
-    <t>CLTR213</t>
-  </si>
-  <si>
-    <t>CLTR223</t>
-  </si>
-  <si>
     <t xml:space="preserve">물리학실험 I </t>
   </si>
   <si>
-    <t>COMP204</t>
-  </si>
-  <si>
     <t xml:space="preserve">프로그래밍기초 </t>
   </si>
   <si>
-    <t>COME331</t>
-  </si>
-  <si>
     <t xml:space="preserve">자료구조 </t>
   </si>
   <si>
     <t xml:space="preserve">시스템프로그래밍  </t>
   </si>
   <si>
-    <t>COMP411</t>
-  </si>
-  <si>
     <t xml:space="preserve">컴퓨터구조 </t>
   </si>
   <si>
-    <t>COMP319</t>
-  </si>
-  <si>
     <t xml:space="preserve">알고리즘1 </t>
   </si>
   <si>
-    <t>COMP312</t>
-  </si>
-  <si>
     <t xml:space="preserve">운영체제 </t>
-  </si>
-  <si>
-    <t>COMP208</t>
-  </si>
-  <si>
-    <t>COMP206</t>
-  </si>
-  <si>
-    <t>COMP325</t>
   </si>
   <si>
     <t>대체교과목번호</t>
@@ -165,6 +114,74 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLTR211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLTR213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLTR223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COME301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COME331</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP217</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELEC462</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP411</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP319</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEC402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEC401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP208</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP325</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1384,7 +1401,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1413,347 +1430,347 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>14</v>
+      <c r="A2" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>18</v>
+      <c r="A3" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>16</v>
+      <c r="A5" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>23</v>
+      <c r="A8" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>7</v>
+      <c r="A9" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>26</v>
+      <c r="A11" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>28</v>
+      <c r="A12" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>30</v>
+      <c r="A13" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>10</v>
+      <c r="A14" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>4</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>12</v>
+      <c r="A15" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>32</v>
+      <c r="A16" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
-      <c r="F16" t="s">
-        <v>19</v>
+      <c r="F16" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>33</v>
+      <c r="A17" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>3</v>
       </c>
-      <c r="F17" t="s">
-        <v>21</v>
+      <c r="F17" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>34</v>
+      <c r="A18" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
       </c>
-      <c r="F18" t="s">
-        <v>28</v>
+      <c r="F18" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/required_subject_list.xlsx
+++ b/app/src/main/res/raw/required_subject_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsungpc\Desktop\SCProject\implementgit\app\src\main\res\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35A93A0-8F09-48A5-AEBF-F2450DCC800D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E69CF31-E2CA-4F50-A07B-6CC73BF6DCEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="2328" windowWidth="14916" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3948" yWindow="1056" windowWidth="12984" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="필수과목목록" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
   <si>
     <t>교과목번호</t>
   </si>
@@ -1401,7 +1401,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1449,9 +1449,7 @@
       <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -1469,9 +1467,7 @@
       <c r="E3">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
@@ -1489,9 +1485,7 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
@@ -1509,9 +1503,7 @@
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
@@ -1529,9 +1521,7 @@
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -1549,9 +1539,7 @@
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
@@ -1569,9 +1557,7 @@
       <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
@@ -1589,9 +1575,7 @@
       <c r="E9">
         <v>3</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
@@ -1609,9 +1593,7 @@
       <c r="E10">
         <v>3</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
@@ -1629,9 +1611,7 @@
       <c r="E11">
         <v>3</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
@@ -1649,9 +1629,7 @@
       <c r="E12">
         <v>3</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
@@ -1669,9 +1647,7 @@
       <c r="E13">
         <v>3</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
@@ -1689,9 +1665,7 @@
       <c r="E14">
         <v>4</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
@@ -1709,9 +1683,7 @@
       <c r="E15">
         <v>4</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">

--- a/app/src/main/res/raw/required_subject_list.xlsx
+++ b/app/src/main/res/raw/required_subject_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsungpc\Desktop\SCProject\implementgit\app\src\main\res\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E69CF31-E2CA-4F50-A07B-6CC73BF6DCEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35A93A0-8F09-48A5-AEBF-F2450DCC800D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3948" yWindow="1056" windowWidth="12984" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="936" yWindow="2328" windowWidth="14916" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="필수과목목록" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="44">
   <si>
     <t>교과목번호</t>
   </si>
@@ -1401,7 +1401,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1449,7 +1449,9 @@
       <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -1467,7 +1469,9 @@
       <c r="E3">
         <v>3</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
@@ -1485,7 +1489,9 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
@@ -1503,7 +1509,9 @@
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
@@ -1521,7 +1529,9 @@
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -1539,7 +1549,9 @@
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
@@ -1557,7 +1569,9 @@
       <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
@@ -1575,7 +1589,9 @@
       <c r="E9">
         <v>3</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
@@ -1593,7 +1609,9 @@
       <c r="E10">
         <v>3</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
@@ -1611,7 +1629,9 @@
       <c r="E11">
         <v>3</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
@@ -1629,7 +1649,9 @@
       <c r="E12">
         <v>3</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
@@ -1647,7 +1669,9 @@
       <c r="E13">
         <v>3</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
@@ -1665,7 +1689,9 @@
       <c r="E14">
         <v>4</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
@@ -1683,7 +1709,9 @@
       <c r="E15">
         <v>4</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">

--- a/app/src/main/res/raw/required_subject_list.xlsx
+++ b/app/src/main/res/raw/required_subject_list.xlsx
@@ -5,22 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsungpc\Desktop\SCProject\implementgit\app\src\main\res\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\knuGra\app\src\main\res\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35A93A0-8F09-48A5-AEBF-F2450DCC800D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE24685-308D-43A3-BC41-60B3EEA6D0AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="2328" windowWidth="14916" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="1522" windowWidth="15097" windowHeight="8708" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="필수과목목록" sheetId="2" r:id="rId1"/>
+    <sheet name="심화컴퓨터전공(ABEEK)" sheetId="2" r:id="rId1"/>
+    <sheet name="글로벌소프트웨어전공(다중전공트랙)" sheetId="3" r:id="rId2"/>
+    <sheet name="글로벌소프트웨어전공(해외복수학위트랙)" sheetId="4" r:id="rId3"/>
+    <sheet name="글로벌소프트웨어전공(학석사연계트랙)" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="47">
   <si>
     <t>교과목번호</t>
   </si>
@@ -182,6 +185,18 @@
   </si>
   <si>
     <t>COMP325</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘실습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLSO216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1400,17 +1415,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471F6030-B2C7-4701-94D2-CC38517545DF}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.35546875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="3" max="4" width="21.35546875" customWidth="1"/>
+    <col min="5" max="5" width="9.640625" customWidth="1"/>
+    <col min="6" max="6" width="21.35546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1778,4 +1793,353 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B275B094-7331-4030-B719-97DA27E5D158}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="25.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="25.5">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25.5">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25F15DF-C2CC-4D0E-8E04-9705CBEBE87C}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="25.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="25.5">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25.5">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2343F8B4-5F64-4BF0-9984-78BE2F23531C}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="25.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="25.5">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25.5">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/app/src/main/res/raw/required_subject_list.xlsx
+++ b/app/src/main/res/raw/required_subject_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\knuGra\app\src\main\res\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE24685-308D-43A3-BC41-60B3EEA6D0AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFBFF16-8DB8-4E13-B110-6CC16F228F84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="1522" windowWidth="15097" windowHeight="8708" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="심화컴퓨터전공(ABEEK)" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="50">
   <si>
     <t>교과목번호</t>
   </si>
@@ -40,68 +40,13 @@
     <t>학점</t>
   </si>
   <si>
-    <t>기초창의공학설계</t>
-  </si>
-  <si>
-    <t>자바프로그래밍</t>
-  </si>
-  <si>
-    <t>종합설계프로젝트1</t>
-  </si>
-  <si>
-    <t>종합설계프로젝트2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">수학 I  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">이산수학  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">물리학실험 I </t>
-  </si>
-  <si>
-    <t xml:space="preserve">프로그래밍기초 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">자료구조 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">시스템프로그래밍  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">컴퓨터구조 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">알고리즘1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">운영체제 </t>
-  </si>
-  <si>
     <t>대체교과목번호</t>
   </si>
   <si>
     <t>전공기반</t>
   </si>
   <si>
-    <t>물리학 I</t>
-  </si>
-  <si>
     <t>공학전공</t>
-  </si>
-  <si>
-    <t>기초공학물리학실험</t>
-  </si>
-  <si>
-    <t>기초프로그래밍</t>
-  </si>
-  <si>
-    <t>알고리즘</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -197,6 +142,87 @@
   </si>
   <si>
     <t>전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래밍기초</t>
+  </si>
+  <si>
+    <t>프로그래밍기초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조</t>
+  </si>
+  <si>
+    <t>자료구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영체제</t>
+  </si>
+  <si>
+    <t>수학 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리학 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리학실험 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공기반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이산수학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초창의공학설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바프로그래밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템프로그래밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영체제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합설계프로젝트1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합설계프로젝트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초공학물리학실험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초프로그래밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1415,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471F6030-B2C7-4701-94D2-CC38517545DF}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection sqref="A1:F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1445,348 +1471,288 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
         <v>9</v>
       </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
         <v>14</v>
       </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
         <v>15</v>
       </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
         <v>16</v>
       </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
         <v>17</v>
       </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
         <v>7</v>
       </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
       <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
         <v>8</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1800,7 +1766,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1822,88 +1788,72 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="25.5">
       <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="25.5">
       <c r="A4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1917,7 +1867,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1939,88 +1889,72 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="25.5">
       <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="25.5">
       <c r="A4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2032,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2343F8B4-5F64-4BF0-9984-78BE2F23531C}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2055,91 +1989,76 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="25.5">
       <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="25.5">
       <c r="A4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/src/main/res/raw/required_subject_list.xlsx
+++ b/app/src/main/res/raw/required_subject_list.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\knuGra\app\src\main\res\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFBFF16-8DB8-4E13-B110-6CC16F228F84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB82ECE-94E4-4A9B-9998-745AC1F833B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="9796" windowHeight="12181" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="심화컴퓨터전공(ABEEK)" sheetId="2" r:id="rId1"/>
     <sheet name="글로벌소프트웨어전공(다중전공트랙)" sheetId="3" r:id="rId2"/>
     <sheet name="글로벌소프트웨어전공(해외복수학위트랙)" sheetId="4" r:id="rId3"/>
     <sheet name="글로벌소프트웨어전공(학석사연계트랙)" sheetId="5" r:id="rId4"/>
+    <sheet name="연계전공공통교육과정" sheetId="10" r:id="rId5"/>
+    <sheet name="연계전공교양교육과정" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="85">
   <si>
     <t>교과목번호</t>
   </si>
@@ -223,6 +225,141 @@
   </si>
   <si>
     <t>알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C/C++프로그래밍기초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLTR195</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW와 문제해결 기초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLTR262</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문화 기술 개론</t>
+  </si>
+  <si>
+    <t>CLTR263</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW 사고기법</t>
+  </si>
+  <si>
+    <t>CLTR266</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW 컨텐츠 제작</t>
+  </si>
+  <si>
+    <t>CLTR270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인공지능의 이해</t>
+  </si>
+  <si>
+    <t>CLTR372</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빅데이터 기초 실습</t>
+  </si>
+  <si>
+    <t>CLTR373</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLTR264</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소셜네트워크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLTR267</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 프로그래밍 기초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLTR268</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이선 프로그래밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보보호론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COME368</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT기술경영개론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP428</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어융합프로젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터학개론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터그래픽스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEC201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP413</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP414</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP419</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1441,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471F6030-B2C7-4701-94D2-CC38517545DF}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1967,7 +2104,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2061,4 +2198,344 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5071219D-B8B4-4707-8A9C-72D8986CCF45}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="25.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="25.5">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="25.5">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="25.5">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25.5">
+      <c r="A6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="38.25">
+      <c r="A7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="25.5">
+      <c r="A8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="25.5">
+      <c r="A9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362CEDD1-8D00-4C7F-88A9-6D89EA5E29C1}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="25.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="38.25">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="38.25">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="25.5">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="25.5">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="25.5">
+      <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25.5">
+      <c r="A7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="38.25">
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="25.5">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="38.25">
+      <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="38.25">
+      <c r="A11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>